--- a/FillWeatherStat/3.xlsx
+++ b/FillWeatherStat/3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\shanzhashu\FillWeatherStat\Win32\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D15BC1-E628-44CD-AE33-B21A5C86532D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82C913A-45C7-4E6E-B4E3-B03E78C3E5DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="21720" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,9 +106,6 @@
 </t>
   </si>
   <si>
-    <t>记录编号：G-7231-H(VX)2303150101</t>
-  </si>
-  <si>
     <t>气温：27.0℃     湿度：42℅RH    风速：2.0m/s</t>
   </si>
   <si>
@@ -122,6 +119,10 @@
 自动站型号：DZZ5
 区站号：J7231
 </t>
+  </si>
+  <si>
+    <t>记录编号：G-7231-H(VX)2303150101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -341,9 +342,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -371,61 +369,76 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -434,20 +447,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -789,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -805,101 +806,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="33" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-    </row>
-    <row r="4" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="30">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="30">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" ht="222.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="35"/>
+      <c r="D7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="19">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="19">
-        <v>0.65972222222222221</v>
-      </c>
-      <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" ht="222.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="30"/>
-      <c r="B7" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -908,14 +909,14 @@
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>0</v>
       </c>
       <c r="B10" s="3">
@@ -925,15 +926,15 @@
         <f>B10-A10</f>
         <v>0</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="19">
         <f>ABS(C10)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>121</v>
       </c>
       <c r="B11" s="3">
@@ -943,15 +944,15 @@
         <f>B11-A11</f>
         <v>-1</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="19">
         <f>ABS(C11)</f>
         <v>1</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>239</v>
       </c>
       <c r="B12" s="3">
@@ -961,78 +962,67 @@
         <f>B12-A12</f>
         <v>2</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="19">
         <f>ABS(C12)</f>
         <v>2</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A16" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="17">
         <v>45000</v>
       </c>
-      <c r="F16" s="32"/>
+      <c r="F16" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
+  <mergeCells count="24">
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -1045,9 +1035,21 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.47244094488188998" right="0.39370078740157499" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>